--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>299400</v>
+        <v>304400</v>
       </c>
       <c r="E8" s="3">
-        <v>153800</v>
+        <v>156400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37000</v>
+        <v>37600</v>
       </c>
       <c r="E9" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>262400</v>
+        <v>266800</v>
       </c>
       <c r="E10" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>79000</v>
+        <v>80400</v>
       </c>
       <c r="E12" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>444900</v>
+        <v>452300</v>
       </c>
       <c r="E17" s="3">
-        <v>232600</v>
+        <v>236500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-145500</v>
+        <v>-147900</v>
       </c>
       <c r="E18" s="3">
-        <v>-78800</v>
+        <v>-80100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-138700</v>
+        <v>-141000</v>
       </c>
       <c r="E21" s="3">
-        <v>-74500</v>
+        <v>-75700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145000</v>
+        <v>-147500</v>
       </c>
       <c r="E23" s="3">
-        <v>-77300</v>
+        <v>-78600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-145000</v>
+        <v>-147500</v>
       </c>
       <c r="E26" s="3">
-        <v>-77300</v>
+        <v>-78600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-188800</v>
+        <v>-191900</v>
       </c>
       <c r="E27" s="3">
-        <v>-113100</v>
+        <v>-115000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-188800</v>
+        <v>-191900</v>
       </c>
       <c r="E33" s="3">
-        <v>-113100</v>
+        <v>-115000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-188800</v>
+        <v>-191900</v>
       </c>
       <c r="E35" s="3">
-        <v>-113100</v>
+        <v>-115000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>615600</v>
+        <v>626000</v>
       </c>
       <c r="E41" s="3">
-        <v>62700</v>
+        <v>63800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>82600</v>
+        <v>84000</v>
       </c>
       <c r="E42" s="3">
-        <v>175800</v>
+        <v>178800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="E43" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>731000</v>
+        <v>743200</v>
       </c>
       <c r="E46" s="3">
-        <v>263000</v>
+        <v>267400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51600</v>
+        <v>52500</v>
       </c>
       <c r="E48" s="3">
-        <v>26300</v>
+        <v>26700</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>782700</v>
+        <v>795800</v>
       </c>
       <c r="E54" s="3">
-        <v>289300</v>
+        <v>294200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>258800</v>
+        <v>263200</v>
       </c>
       <c r="E59" s="3">
-        <v>149000</v>
+        <v>151400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>264800</v>
+        <v>269300</v>
       </c>
       <c r="E60" s="3">
-        <v>155200</v>
+        <v>157800</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="E62" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>276600</v>
+        <v>281200</v>
       </c>
       <c r="E66" s="3">
-        <v>161000</v>
+        <v>163700</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>876200</v>
+        <v>890900</v>
       </c>
       <c r="E70" s="3">
-        <v>400900</v>
+        <v>407600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-403700</v>
+        <v>-410500</v>
       </c>
       <c r="E72" s="3">
-        <v>-258700</v>
+        <v>-263000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-370100</v>
+        <v>-376300</v>
       </c>
       <c r="E76" s="3">
-        <v>-272600</v>
+        <v>-277100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-188800</v>
+        <v>-191900</v>
       </c>
       <c r="E81" s="3">
-        <v>-113100</v>
+        <v>-115000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>61000</v>
+        <v>62000</v>
       </c>
       <c r="E89" s="3">
-        <v>-16300</v>
+        <v>-16500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="E94" s="3">
-        <v>-188400</v>
+        <v>-191600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>443800</v>
+        <v>451200</v>
       </c>
       <c r="E100" s="3">
-        <v>153000</v>
+        <v>155500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23800</v>
+        <v>-24200</v>
       </c>
       <c r="E101" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>552900</v>
+        <v>562200</v>
       </c>
       <c r="E102" s="3">
-        <v>-45100</v>
+        <v>-45900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>304400</v>
+        <v>306700</v>
       </c>
       <c r="E8" s="3">
-        <v>156400</v>
+        <v>157600</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37600</v>
+        <v>37900</v>
       </c>
       <c r="E9" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>266800</v>
+        <v>268800</v>
       </c>
       <c r="E10" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>80400</v>
+        <v>81000</v>
       </c>
       <c r="E12" s="3">
-        <v>51000</v>
+        <v>51400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>452300</v>
+        <v>455800</v>
       </c>
       <c r="E17" s="3">
-        <v>236500</v>
+        <v>238300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-147900</v>
+        <v>-149100</v>
       </c>
       <c r="E18" s="3">
-        <v>-80100</v>
+        <v>-80800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-141000</v>
+        <v>-142100</v>
       </c>
       <c r="E21" s="3">
-        <v>-75700</v>
+        <v>-76300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-147500</v>
+        <v>-148600</v>
       </c>
       <c r="E23" s="3">
-        <v>-78600</v>
+        <v>-79200</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-147500</v>
+        <v>-148600</v>
       </c>
       <c r="E26" s="3">
-        <v>-78600</v>
+        <v>-79200</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-191900</v>
+        <v>-193400</v>
       </c>
       <c r="E27" s="3">
-        <v>-115000</v>
+        <v>-115900</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-191900</v>
+        <v>-193400</v>
       </c>
       <c r="E33" s="3">
-        <v>-115000</v>
+        <v>-115900</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-191900</v>
+        <v>-193400</v>
       </c>
       <c r="E35" s="3">
-        <v>-115000</v>
+        <v>-115900</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>626000</v>
+        <v>630800</v>
       </c>
       <c r="E41" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84000</v>
+        <v>84600</v>
       </c>
       <c r="E42" s="3">
-        <v>178800</v>
+        <v>180200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>743200</v>
+        <v>748900</v>
       </c>
       <c r="E46" s="3">
-        <v>267400</v>
+        <v>269400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52500</v>
+        <v>52900</v>
       </c>
       <c r="E48" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>795800</v>
+        <v>801900</v>
       </c>
       <c r="E54" s="3">
-        <v>294200</v>
+        <v>296400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>263200</v>
+        <v>265200</v>
       </c>
       <c r="E59" s="3">
-        <v>151400</v>
+        <v>152600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>269300</v>
+        <v>271400</v>
       </c>
       <c r="E60" s="3">
-        <v>157800</v>
+        <v>159000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>281200</v>
+        <v>283400</v>
       </c>
       <c r="E66" s="3">
-        <v>163700</v>
+        <v>164900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>890900</v>
+        <v>897700</v>
       </c>
       <c r="E70" s="3">
-        <v>407600</v>
+        <v>410700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-410500</v>
+        <v>-413700</v>
       </c>
       <c r="E72" s="3">
-        <v>-263000</v>
+        <v>-265100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-376300</v>
+        <v>-379200</v>
       </c>
       <c r="E76" s="3">
-        <v>-277100</v>
+        <v>-279200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-191900</v>
+        <v>-193400</v>
       </c>
       <c r="E81" s="3">
-        <v>-115000</v>
+        <v>-115900</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62000</v>
+        <v>62500</v>
       </c>
       <c r="E89" s="3">
-        <v>-16500</v>
+        <v>-16700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21600</v>
+        <v>-21800</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="E94" s="3">
-        <v>-191600</v>
+        <v>-193100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>451200</v>
+        <v>454700</v>
       </c>
       <c r="E100" s="3">
-        <v>155500</v>
+        <v>156700</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24200</v>
+        <v>-24400</v>
       </c>
       <c r="E101" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>562200</v>
+        <v>566500</v>
       </c>
       <c r="E102" s="3">
-        <v>-45900</v>
+        <v>-46200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>306700</v>
+        <v>627600</v>
       </c>
       <c r="E8" s="3">
-        <v>157600</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>286500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>147200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37900</v>
+        <v>81700</v>
       </c>
       <c r="E9" s="3">
-        <v>21700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>35400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20300</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>268800</v>
+        <v>545900</v>
       </c>
       <c r="E10" s="3">
-        <v>135800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>251100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>126900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>81000</v>
+        <v>121100</v>
       </c>
       <c r="E12" s="3">
-        <v>51400</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>75600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>48000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,21 +869,24 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="E14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>455800</v>
+        <v>780300</v>
       </c>
       <c r="E17" s="3">
-        <v>238300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>425800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>222600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-149100</v>
+        <v>-152700</v>
       </c>
       <c r="E18" s="3">
-        <v>-80800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-139200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-75400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-142100</v>
+        <v>-137100</v>
       </c>
       <c r="E21" s="3">
-        <v>-76300</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-132700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-71200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,21 +1074,24 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-148600</v>
+        <v>-149100</v>
       </c>
       <c r="E23" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-138800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-74000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,14 +1134,17 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1107,21 +1152,24 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-148600</v>
+        <v>-157800</v>
       </c>
       <c r="E26" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-138800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-74000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193400</v>
+        <v>-182000</v>
       </c>
       <c r="E27" s="3">
-        <v>-115900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-180600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-108200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193400</v>
+        <v>-182000</v>
       </c>
       <c r="E33" s="3">
-        <v>-115900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-180600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-108200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193400</v>
+        <v>-182000</v>
       </c>
       <c r="E35" s="3">
-        <v>-115900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-180600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-108200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>630800</v>
+        <v>1671300</v>
       </c>
       <c r="E41" s="3">
-        <v>64300</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>589200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>60000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84600</v>
+        <v>130400</v>
       </c>
       <c r="E42" s="3">
-        <v>180200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>168300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19200</v>
+        <v>61000</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14300</v>
+        <v>46900</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>748900</v>
+        <v>1909600</v>
       </c>
       <c r="E46" s="3">
-        <v>269400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>699600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>251700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52900</v>
+        <v>99900</v>
       </c>
       <c r="E48" s="3">
-        <v>26900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>49400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>25100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1702,8 +1812,8 @@
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>801900</v>
+        <v>2010200</v>
       </c>
       <c r="E54" s="3">
-        <v>296400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>749100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>276900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="E57" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265200</v>
+        <v>402800</v>
       </c>
       <c r="E59" s="3">
-        <v>152600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>247700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>142500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>271400</v>
+        <v>410300</v>
       </c>
       <c r="E60" s="3">
-        <v>159000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>253500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>148500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="E62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>283400</v>
+        <v>437300</v>
       </c>
       <c r="E66" s="3">
-        <v>164900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>264700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>154100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>897700</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>410700</v>
+        <v>838600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>383700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-413700</v>
+        <v>-544200</v>
       </c>
       <c r="E72" s="3">
-        <v>-265100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-386400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-247600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-379200</v>
+        <v>1572900</v>
       </c>
       <c r="E76" s="3">
-        <v>-279200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-354200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-260900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193400</v>
+        <v>-182000</v>
       </c>
       <c r="E81" s="3">
-        <v>-115900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-180600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-108200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6500</v>
+        <v>11800</v>
       </c>
       <c r="E83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62500</v>
+        <v>241900</v>
       </c>
       <c r="E89" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-15600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21800</v>
+        <v>-38300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-20400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>73700</v>
+        <v>-88700</v>
       </c>
       <c r="E94" s="3">
-        <v>-193100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-180300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>454700</v>
+        <v>947700</v>
       </c>
       <c r="E100" s="3">
-        <v>156700</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>424700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>146400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24400</v>
+        <v>-18700</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>-22800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>6400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>566500</v>
+        <v>1082100</v>
       </c>
       <c r="E102" s="3">
-        <v>-46200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>529100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-43200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>627600</v>
+        <v>622000</v>
       </c>
       <c r="E8" s="3">
-        <v>286500</v>
+        <v>283900</v>
       </c>
       <c r="F8" s="3">
-        <v>147200</v>
+        <v>145800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>81700</v>
+        <v>81000</v>
       </c>
       <c r="E9" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="F9" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>545900</v>
+        <v>541000</v>
       </c>
       <c r="E10" s="3">
-        <v>251100</v>
+        <v>248900</v>
       </c>
       <c r="F10" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="E12" s="3">
-        <v>75600</v>
+        <v>75000</v>
       </c>
       <c r="F12" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>780300</v>
+        <v>773300</v>
       </c>
       <c r="E17" s="3">
-        <v>425800</v>
+        <v>421900</v>
       </c>
       <c r="F17" s="3">
-        <v>222600</v>
+        <v>220600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-152700</v>
+        <v>-151300</v>
       </c>
       <c r="E18" s="3">
-        <v>-139200</v>
+        <v>-138000</v>
       </c>
       <c r="F18" s="3">
-        <v>-75400</v>
+        <v>-74800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-137100</v>
+        <v>-136000</v>
       </c>
       <c r="E21" s="3">
-        <v>-132700</v>
+        <v>-131600</v>
       </c>
       <c r="F21" s="3">
-        <v>-71200</v>
+        <v>-70600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-149100</v>
+        <v>-147700</v>
       </c>
       <c r="E23" s="3">
-        <v>-138800</v>
+        <v>-137500</v>
       </c>
       <c r="F23" s="3">
-        <v>-74000</v>
+        <v>-73300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-157800</v>
+        <v>-156400</v>
       </c>
       <c r="E26" s="3">
-        <v>-138800</v>
+        <v>-137500</v>
       </c>
       <c r="F26" s="3">
-        <v>-74000</v>
+        <v>-73300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-182000</v>
+        <v>-180400</v>
       </c>
       <c r="E27" s="3">
-        <v>-180600</v>
+        <v>-179000</v>
       </c>
       <c r="F27" s="3">
-        <v>-108200</v>
+        <v>-107200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-182000</v>
+        <v>-180400</v>
       </c>
       <c r="E33" s="3">
-        <v>-180600</v>
+        <v>-179000</v>
       </c>
       <c r="F33" s="3">
-        <v>-108200</v>
+        <v>-107200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-182000</v>
+        <v>-180400</v>
       </c>
       <c r="E35" s="3">
-        <v>-180600</v>
+        <v>-179000</v>
       </c>
       <c r="F35" s="3">
-        <v>-108200</v>
+        <v>-107200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1671300</v>
+        <v>1656200</v>
       </c>
       <c r="E41" s="3">
-        <v>589200</v>
+        <v>583900</v>
       </c>
       <c r="F41" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130400</v>
+        <v>129200</v>
       </c>
       <c r="E42" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="F42" s="3">
-        <v>168300</v>
+        <v>166800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61000</v>
+        <v>60500</v>
       </c>
       <c r="E43" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="F43" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="E45" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1909600</v>
+        <v>1892400</v>
       </c>
       <c r="E46" s="3">
-        <v>699600</v>
+        <v>693200</v>
       </c>
       <c r="F46" s="3">
-        <v>251700</v>
+        <v>249400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99900</v>
+        <v>99000</v>
       </c>
       <c r="E48" s="3">
-        <v>49400</v>
+        <v>49000</v>
       </c>
       <c r="F48" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2010200</v>
+        <v>1992100</v>
       </c>
       <c r="E54" s="3">
-        <v>749100</v>
+        <v>742300</v>
       </c>
       <c r="F54" s="3">
-        <v>276900</v>
+        <v>274400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F57" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>402800</v>
+        <v>399200</v>
       </c>
       <c r="E59" s="3">
-        <v>247700</v>
+        <v>245500</v>
       </c>
       <c r="F59" s="3">
-        <v>142500</v>
+        <v>141300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410300</v>
+        <v>406600</v>
       </c>
       <c r="E60" s="3">
-        <v>253500</v>
+        <v>251200</v>
       </c>
       <c r="F60" s="3">
-        <v>148500</v>
+        <v>147200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27000</v>
+        <v>26800</v>
       </c>
       <c r="E62" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F62" s="3">
         <v>5500</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>437300</v>
+        <v>433400</v>
       </c>
       <c r="E66" s="3">
-        <v>264700</v>
+        <v>262300</v>
       </c>
       <c r="F66" s="3">
-        <v>154100</v>
+        <v>152700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>838600</v>
+        <v>831000</v>
       </c>
       <c r="F70" s="3">
-        <v>383700</v>
+        <v>380200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-544200</v>
+        <v>-539300</v>
       </c>
       <c r="E72" s="3">
-        <v>-386400</v>
+        <v>-382900</v>
       </c>
       <c r="F72" s="3">
-        <v>-247600</v>
+        <v>-245400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1572900</v>
+        <v>1558700</v>
       </c>
       <c r="E76" s="3">
-        <v>-354200</v>
+        <v>-351000</v>
       </c>
       <c r="F76" s="3">
-        <v>-260900</v>
+        <v>-258500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-182000</v>
+        <v>-180400</v>
       </c>
       <c r="E81" s="3">
-        <v>-180600</v>
+        <v>-179000</v>
       </c>
       <c r="F81" s="3">
-        <v>-108200</v>
+        <v>-107200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E83" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>241900</v>
+        <v>239700</v>
       </c>
       <c r="E89" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="F89" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38300</v>
+        <v>-38000</v>
       </c>
       <c r="E91" s="3">
-        <v>-20400</v>
+        <v>-20200</v>
       </c>
       <c r="F91" s="3">
         <v>-9400</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88700</v>
+        <v>-87900</v>
       </c>
       <c r="E94" s="3">
-        <v>68900</v>
+        <v>68200</v>
       </c>
       <c r="F94" s="3">
-        <v>-180300</v>
+        <v>-178700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>947700</v>
+        <v>939200</v>
       </c>
       <c r="E100" s="3">
-        <v>424700</v>
+        <v>420900</v>
       </c>
       <c r="F100" s="3">
-        <v>146400</v>
+        <v>145100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="E101" s="3">
-        <v>-22800</v>
+        <v>-22600</v>
       </c>
       <c r="F101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1082100</v>
+        <v>1072400</v>
       </c>
       <c r="E102" s="3">
-        <v>529100</v>
+        <v>524400</v>
       </c>
       <c r="F102" s="3">
-        <v>-43200</v>
+        <v>-42800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>622000</v>
+        <v>592900</v>
       </c>
       <c r="E8" s="3">
-        <v>283900</v>
+        <v>270700</v>
       </c>
       <c r="F8" s="3">
-        <v>145800</v>
+        <v>139000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>81000</v>
+        <v>77200</v>
       </c>
       <c r="E9" s="3">
-        <v>35100</v>
+        <v>33400</v>
       </c>
       <c r="F9" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>541000</v>
+        <v>515700</v>
       </c>
       <c r="E10" s="3">
-        <v>248900</v>
+        <v>237200</v>
       </c>
       <c r="F10" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>120000</v>
+        <v>114400</v>
       </c>
       <c r="E12" s="3">
-        <v>75000</v>
+        <v>71500</v>
       </c>
       <c r="F12" s="3">
-        <v>47500</v>
+        <v>45300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E14" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F14" s="3">
         <v>-400</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>773300</v>
+        <v>737100</v>
       </c>
       <c r="E17" s="3">
-        <v>421900</v>
+        <v>402200</v>
       </c>
       <c r="F17" s="3">
-        <v>220600</v>
+        <v>210300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-151300</v>
+        <v>-144300</v>
       </c>
       <c r="E18" s="3">
-        <v>-138000</v>
+        <v>-131500</v>
       </c>
       <c r="F18" s="3">
-        <v>-74800</v>
+        <v>-71300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-136000</v>
+        <v>-129700</v>
       </c>
       <c r="E21" s="3">
-        <v>-131600</v>
+        <v>-125400</v>
       </c>
       <c r="F21" s="3">
-        <v>-70600</v>
+        <v>-67300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-147700</v>
+        <v>-140800</v>
       </c>
       <c r="E23" s="3">
-        <v>-137500</v>
+        <v>-131100</v>
       </c>
       <c r="F23" s="3">
-        <v>-73300</v>
+        <v>-69900</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-156400</v>
+        <v>-149100</v>
       </c>
       <c r="E26" s="3">
-        <v>-137500</v>
+        <v>-131100</v>
       </c>
       <c r="F26" s="3">
-        <v>-73300</v>
+        <v>-69900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-180400</v>
+        <v>-171900</v>
       </c>
       <c r="E27" s="3">
-        <v>-179000</v>
+        <v>-170600</v>
       </c>
       <c r="F27" s="3">
-        <v>-107200</v>
+        <v>-102200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-180400</v>
+        <v>-171900</v>
       </c>
       <c r="E33" s="3">
-        <v>-179000</v>
+        <v>-170600</v>
       </c>
       <c r="F33" s="3">
-        <v>-107200</v>
+        <v>-102200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-180400</v>
+        <v>-171900</v>
       </c>
       <c r="E35" s="3">
-        <v>-179000</v>
+        <v>-170600</v>
       </c>
       <c r="F35" s="3">
-        <v>-107200</v>
+        <v>-102200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1656200</v>
+        <v>1578800</v>
       </c>
       <c r="E41" s="3">
-        <v>583900</v>
+        <v>556500</v>
       </c>
       <c r="F41" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>129200</v>
+        <v>123200</v>
       </c>
       <c r="E42" s="3">
-        <v>78300</v>
+        <v>74700</v>
       </c>
       <c r="F42" s="3">
-        <v>166800</v>
+        <v>159000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60500</v>
+        <v>57600</v>
       </c>
       <c r="E43" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="F43" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="F45" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1892400</v>
+        <v>1803900</v>
       </c>
       <c r="E46" s="3">
-        <v>693200</v>
+        <v>660800</v>
       </c>
       <c r="F46" s="3">
-        <v>249400</v>
+        <v>237700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99000</v>
+        <v>94400</v>
       </c>
       <c r="E48" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="F48" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1992100</v>
+        <v>1898900</v>
       </c>
       <c r="E54" s="3">
-        <v>742300</v>
+        <v>707600</v>
       </c>
       <c r="F54" s="3">
-        <v>274400</v>
+        <v>261600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E57" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F57" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399200</v>
+        <v>380500</v>
       </c>
       <c r="E59" s="3">
-        <v>245500</v>
+        <v>234000</v>
       </c>
       <c r="F59" s="3">
-        <v>141300</v>
+        <v>134700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>406600</v>
+        <v>387600</v>
       </c>
       <c r="E60" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="F60" s="3">
-        <v>147200</v>
+        <v>140300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="E62" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>433400</v>
+        <v>413100</v>
       </c>
       <c r="E66" s="3">
-        <v>262300</v>
+        <v>250100</v>
       </c>
       <c r="F66" s="3">
-        <v>152700</v>
+        <v>145500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>831000</v>
+        <v>792100</v>
       </c>
       <c r="F70" s="3">
-        <v>380200</v>
+        <v>362400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-539300</v>
+        <v>-514100</v>
       </c>
       <c r="E72" s="3">
-        <v>-382900</v>
+        <v>-365000</v>
       </c>
       <c r="F72" s="3">
-        <v>-245400</v>
+        <v>-233900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1558700</v>
+        <v>1485800</v>
       </c>
       <c r="E76" s="3">
-        <v>-351000</v>
+        <v>-334600</v>
       </c>
       <c r="F76" s="3">
-        <v>-258500</v>
+        <v>-246400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-180400</v>
+        <v>-171900</v>
       </c>
       <c r="E81" s="3">
-        <v>-179000</v>
+        <v>-170600</v>
       </c>
       <c r="F81" s="3">
-        <v>-107200</v>
+        <v>-102200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>239700</v>
+        <v>228500</v>
       </c>
       <c r="E89" s="3">
-        <v>57800</v>
+        <v>55100</v>
       </c>
       <c r="F89" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38000</v>
+        <v>-36200</v>
       </c>
       <c r="E91" s="3">
-        <v>-20200</v>
+        <v>-19200</v>
       </c>
       <c r="F91" s="3">
-        <v>-9400</v>
+        <v>-8900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87900</v>
+        <v>-83800</v>
       </c>
       <c r="E94" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="F94" s="3">
-        <v>-178700</v>
+        <v>-170400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>939200</v>
+        <v>895200</v>
       </c>
       <c r="E100" s="3">
-        <v>420900</v>
+        <v>401200</v>
       </c>
       <c r="F100" s="3">
-        <v>145100</v>
+        <v>138300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18600</v>
+        <v>-17700</v>
       </c>
       <c r="E101" s="3">
-        <v>-22600</v>
+        <v>-21500</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1072400</v>
+        <v>1022200</v>
       </c>
       <c r="E102" s="3">
-        <v>524400</v>
+        <v>499800</v>
       </c>
       <c r="F102" s="3">
-        <v>-42800</v>
+        <v>-40800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>592900</v>
+        <v>611700</v>
       </c>
       <c r="E8" s="3">
-        <v>270700</v>
+        <v>279200</v>
       </c>
       <c r="F8" s="3">
-        <v>139000</v>
+        <v>143400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>77200</v>
+        <v>79700</v>
       </c>
       <c r="E9" s="3">
-        <v>33400</v>
+        <v>34500</v>
       </c>
       <c r="F9" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>515700</v>
+        <v>532000</v>
       </c>
       <c r="E10" s="3">
-        <v>237200</v>
+        <v>244700</v>
       </c>
       <c r="F10" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>114400</v>
+        <v>118100</v>
       </c>
       <c r="E12" s="3">
-        <v>71500</v>
+        <v>73700</v>
       </c>
       <c r="F12" s="3">
-        <v>45300</v>
+        <v>46800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E14" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F14" s="3">
         <v>-400</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>737100</v>
+        <v>760500</v>
       </c>
       <c r="E17" s="3">
-        <v>402200</v>
+        <v>415000</v>
       </c>
       <c r="F17" s="3">
-        <v>210300</v>
+        <v>217000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-144300</v>
+        <v>-148800</v>
       </c>
       <c r="E18" s="3">
-        <v>-131500</v>
+        <v>-135700</v>
       </c>
       <c r="F18" s="3">
-        <v>-71300</v>
+        <v>-73500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-129700</v>
+        <v>-133800</v>
       </c>
       <c r="E21" s="3">
-        <v>-125400</v>
+        <v>-129400</v>
       </c>
       <c r="F21" s="3">
-        <v>-67300</v>
+        <v>-69500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140800</v>
+        <v>-145300</v>
       </c>
       <c r="E23" s="3">
-        <v>-131100</v>
+        <v>-135300</v>
       </c>
       <c r="F23" s="3">
-        <v>-69900</v>
+        <v>-72100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-149100</v>
+        <v>-153800</v>
       </c>
       <c r="E26" s="3">
-        <v>-131100</v>
+        <v>-135300</v>
       </c>
       <c r="F26" s="3">
-        <v>-69900</v>
+        <v>-72100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-171900</v>
+        <v>-177400</v>
       </c>
       <c r="E27" s="3">
-        <v>-170600</v>
+        <v>-176100</v>
       </c>
       <c r="F27" s="3">
-        <v>-102200</v>
+        <v>-105500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-171900</v>
+        <v>-177400</v>
       </c>
       <c r="E33" s="3">
-        <v>-170600</v>
+        <v>-176100</v>
       </c>
       <c r="F33" s="3">
-        <v>-102200</v>
+        <v>-105500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-171900</v>
+        <v>-177400</v>
       </c>
       <c r="E35" s="3">
-        <v>-170600</v>
+        <v>-176100</v>
       </c>
       <c r="F35" s="3">
-        <v>-102200</v>
+        <v>-105500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1578800</v>
+        <v>1628900</v>
       </c>
       <c r="E41" s="3">
-        <v>556500</v>
+        <v>574200</v>
       </c>
       <c r="F41" s="3">
-        <v>56700</v>
+        <v>58500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>123200</v>
+        <v>127100</v>
       </c>
       <c r="E42" s="3">
-        <v>74700</v>
+        <v>77000</v>
       </c>
       <c r="F42" s="3">
-        <v>159000</v>
+        <v>164000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57600</v>
+        <v>59500</v>
       </c>
       <c r="E43" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F43" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="E45" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1803900</v>
+        <v>1861200</v>
       </c>
       <c r="E46" s="3">
-        <v>660800</v>
+        <v>681800</v>
       </c>
       <c r="F46" s="3">
-        <v>237700</v>
+        <v>245300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94400</v>
+        <v>97400</v>
       </c>
       <c r="E48" s="3">
-        <v>46700</v>
+        <v>48200</v>
       </c>
       <c r="F48" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1898900</v>
+        <v>1959200</v>
       </c>
       <c r="E54" s="3">
-        <v>707600</v>
+        <v>730100</v>
       </c>
       <c r="F54" s="3">
-        <v>261600</v>
+        <v>269900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>380500</v>
+        <v>392600</v>
       </c>
       <c r="E59" s="3">
-        <v>234000</v>
+        <v>241400</v>
       </c>
       <c r="F59" s="3">
-        <v>134700</v>
+        <v>138900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>387600</v>
+        <v>399900</v>
       </c>
       <c r="E60" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="F60" s="3">
-        <v>140300</v>
+        <v>144700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="E62" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>413100</v>
+        <v>426200</v>
       </c>
       <c r="E66" s="3">
-        <v>250100</v>
+        <v>258000</v>
       </c>
       <c r="F66" s="3">
-        <v>145500</v>
+        <v>150200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>792100</v>
+        <v>817300</v>
       </c>
       <c r="F70" s="3">
-        <v>362400</v>
+        <v>373900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-514100</v>
+        <v>-530400</v>
       </c>
       <c r="E72" s="3">
-        <v>-365000</v>
+        <v>-376600</v>
       </c>
       <c r="F72" s="3">
-        <v>-233900</v>
+        <v>-241300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1485800</v>
+        <v>1533000</v>
       </c>
       <c r="E76" s="3">
-        <v>-334600</v>
+        <v>-345200</v>
       </c>
       <c r="F76" s="3">
-        <v>-246400</v>
+        <v>-254200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-171900</v>
+        <v>-177400</v>
       </c>
       <c r="E81" s="3">
-        <v>-170600</v>
+        <v>-176100</v>
       </c>
       <c r="F81" s="3">
-        <v>-102200</v>
+        <v>-105500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="E83" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>228500</v>
+        <v>235700</v>
       </c>
       <c r="E89" s="3">
-        <v>55100</v>
+        <v>56900</v>
       </c>
       <c r="F89" s="3">
-        <v>-14700</v>
+        <v>-15200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36200</v>
+        <v>-37300</v>
       </c>
       <c r="E91" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83800</v>
+        <v>-86400</v>
       </c>
       <c r="E94" s="3">
-        <v>65000</v>
+        <v>67100</v>
       </c>
       <c r="F94" s="3">
-        <v>-170400</v>
+        <v>-175800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>895200</v>
+        <v>923700</v>
       </c>
       <c r="E100" s="3">
-        <v>401200</v>
+        <v>413900</v>
       </c>
       <c r="F100" s="3">
-        <v>138300</v>
+        <v>142700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17700</v>
+        <v>-18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-21500</v>
+        <v>-22200</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1022200</v>
+        <v>1054700</v>
       </c>
       <c r="E102" s="3">
-        <v>499800</v>
+        <v>515700</v>
       </c>
       <c r="F102" s="3">
-        <v>-40800</v>
+        <v>-42100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>611700</v>
+        <v>641200</v>
       </c>
       <c r="E8" s="3">
-        <v>279200</v>
+        <v>605400</v>
       </c>
       <c r="F8" s="3">
-        <v>143400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>276400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>142000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79700</v>
+        <v>107300</v>
       </c>
       <c r="E9" s="3">
-        <v>34500</v>
+        <v>78800</v>
       </c>
       <c r="F9" s="3">
-        <v>19800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>34100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>19600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>532000</v>
+        <v>533900</v>
       </c>
       <c r="E10" s="3">
-        <v>244700</v>
+        <v>526600</v>
       </c>
       <c r="F10" s="3">
-        <v>123600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>242200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>122400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>118100</v>
+        <v>168100</v>
       </c>
       <c r="E12" s="3">
-        <v>73700</v>
+        <v>116800</v>
       </c>
       <c r="F12" s="3">
-        <v>46800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>73000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,24 +888,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>760500</v>
+        <v>659700</v>
       </c>
       <c r="E17" s="3">
-        <v>415000</v>
+        <v>752700</v>
       </c>
       <c r="F17" s="3">
-        <v>217000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>410700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>214700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-148800</v>
+        <v>-18400</v>
       </c>
       <c r="E18" s="3">
-        <v>-135700</v>
+        <v>-147300</v>
       </c>
       <c r="F18" s="3">
-        <v>-73500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-134300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-72800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-133800</v>
+        <v>36600</v>
       </c>
       <c r="E21" s="3">
-        <v>-129400</v>
+        <v>-132300</v>
       </c>
       <c r="F21" s="3">
-        <v>-69500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-128000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-68700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145300</v>
+        <v>16600</v>
       </c>
       <c r="E23" s="3">
-        <v>-135300</v>
+        <v>-143800</v>
       </c>
       <c r="F23" s="3">
-        <v>-72100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-133900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-71400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>8500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-153800</v>
+        <v>15200</v>
       </c>
       <c r="E26" s="3">
-        <v>-135300</v>
+        <v>-152300</v>
       </c>
       <c r="F26" s="3">
-        <v>-72100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-133900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-71400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-177400</v>
+        <v>15200</v>
       </c>
       <c r="E27" s="3">
-        <v>-176100</v>
+        <v>-175600</v>
       </c>
       <c r="F27" s="3">
-        <v>-105500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-174300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-104400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-35000</v>
       </c>
       <c r="E32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-177400</v>
+        <v>15200</v>
       </c>
       <c r="E33" s="3">
-        <v>-176100</v>
+        <v>-175600</v>
       </c>
       <c r="F33" s="3">
-        <v>-105500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-174300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-104400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-177400</v>
+        <v>15200</v>
       </c>
       <c r="E35" s="3">
-        <v>-176100</v>
+        <v>-175600</v>
       </c>
       <c r="F35" s="3">
-        <v>-105500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-174300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-104400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1628900</v>
+        <v>1386200</v>
       </c>
       <c r="E41" s="3">
-        <v>574200</v>
+        <v>1612200</v>
       </c>
       <c r="F41" s="3">
-        <v>58500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>568300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>57900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>127100</v>
+        <v>491600</v>
       </c>
       <c r="E42" s="3">
-        <v>77000</v>
+        <v>125800</v>
       </c>
       <c r="F42" s="3">
-        <v>164000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>162300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59500</v>
+        <v>35800</v>
       </c>
       <c r="E43" s="3">
-        <v>17500</v>
+        <v>58900</v>
       </c>
       <c r="F43" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45700</v>
+        <v>51800</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>45200</v>
       </c>
       <c r="F45" s="3">
-        <v>11900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1861200</v>
+        <v>1965400</v>
       </c>
       <c r="E46" s="3">
-        <v>681800</v>
+        <v>1842100</v>
       </c>
       <c r="F46" s="3">
-        <v>245300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>674800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>242800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97400</v>
+        <v>139400</v>
       </c>
       <c r="E48" s="3">
-        <v>48200</v>
+        <v>96400</v>
       </c>
       <c r="F48" s="3">
-        <v>24500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>47700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>24200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,14 +1907,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1815,8 +1925,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,17 +2006,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1917,12 +2036,15 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1959200</v>
+        <v>2107600</v>
       </c>
       <c r="E54" s="3">
-        <v>730100</v>
+        <v>1939200</v>
       </c>
       <c r="F54" s="3">
-        <v>269900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>722600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>267100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7300</v>
+        <v>24800</v>
       </c>
       <c r="E57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>392600</v>
+        <v>406100</v>
       </c>
       <c r="E59" s="3">
-        <v>241400</v>
+        <v>388600</v>
       </c>
       <c r="F59" s="3">
-        <v>138900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>238900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>137500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>399900</v>
+        <v>430900</v>
       </c>
       <c r="E60" s="3">
-        <v>247000</v>
+        <v>395800</v>
       </c>
       <c r="F60" s="3">
-        <v>144700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>244500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>143300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,24 +2300,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26300</v>
+        <v>22000</v>
       </c>
       <c r="E62" s="3">
-        <v>11000</v>
+        <v>26100</v>
       </c>
       <c r="F62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>426200</v>
+        <v>452900</v>
       </c>
       <c r="E66" s="3">
-        <v>258000</v>
+        <v>421800</v>
       </c>
       <c r="F66" s="3">
-        <v>150200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>255400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>148600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>817300</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>373900</v>
+        <v>808900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>370100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-530400</v>
+        <v>-509800</v>
       </c>
       <c r="E72" s="3">
-        <v>-376600</v>
+        <v>-525000</v>
       </c>
       <c r="F72" s="3">
-        <v>-241300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-372700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-238800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1533000</v>
+        <v>1654700</v>
       </c>
       <c r="E76" s="3">
-        <v>-345200</v>
+        <v>1517300</v>
       </c>
       <c r="F76" s="3">
-        <v>-254200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-341700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-251600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-177400</v>
+        <v>15200</v>
       </c>
       <c r="E81" s="3">
-        <v>-176100</v>
+        <v>-175600</v>
       </c>
       <c r="F81" s="3">
-        <v>-105500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-174300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-104400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11500</v>
+        <v>19900</v>
       </c>
       <c r="E83" s="3">
-        <v>5900</v>
+        <v>11400</v>
       </c>
       <c r="F83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>235700</v>
+        <v>142600</v>
       </c>
       <c r="E89" s="3">
-        <v>56900</v>
+        <v>233300</v>
       </c>
       <c r="F89" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>56300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-15000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37300</v>
+        <v>-48300</v>
       </c>
       <c r="E91" s="3">
-        <v>-19800</v>
+        <v>-36900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-19600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86400</v>
+        <v>-400400</v>
       </c>
       <c r="E94" s="3">
-        <v>67100</v>
+        <v>-85600</v>
       </c>
       <c r="F94" s="3">
-        <v>-175800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>66400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-174000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>923700</v>
+        <v>-95100</v>
       </c>
       <c r="E100" s="3">
-        <v>413900</v>
+        <v>914200</v>
       </c>
       <c r="F100" s="3">
-        <v>142700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>409700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>141200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18300</v>
+        <v>126900</v>
       </c>
       <c r="E101" s="3">
-        <v>-22200</v>
+        <v>-18100</v>
       </c>
       <c r="F101" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-22000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1054700</v>
+        <v>-226000</v>
       </c>
       <c r="E102" s="3">
-        <v>515700</v>
+        <v>1043900</v>
       </c>
       <c r="F102" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>510400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-41600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>641200</v>
+        <v>621500</v>
       </c>
       <c r="E8" s="3">
-        <v>605400</v>
+        <v>586800</v>
       </c>
       <c r="F8" s="3">
-        <v>276400</v>
+        <v>267900</v>
       </c>
       <c r="G8" s="3">
-        <v>142000</v>
+        <v>137600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>107300</v>
+        <v>104000</v>
       </c>
       <c r="E9" s="3">
-        <v>78800</v>
+        <v>76400</v>
       </c>
       <c r="F9" s="3">
-        <v>34100</v>
+        <v>33100</v>
       </c>
       <c r="G9" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>533900</v>
+        <v>517500</v>
       </c>
       <c r="E10" s="3">
-        <v>526600</v>
+        <v>510400</v>
       </c>
       <c r="F10" s="3">
-        <v>242200</v>
+        <v>234800</v>
       </c>
       <c r="G10" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>168100</v>
+        <v>163000</v>
       </c>
       <c r="E12" s="3">
-        <v>116800</v>
+        <v>113300</v>
       </c>
       <c r="F12" s="3">
-        <v>73000</v>
+        <v>70700</v>
       </c>
       <c r="G12" s="3">
-        <v>46300</v>
+        <v>44900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F14" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G14" s="3">
         <v>-400</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>659700</v>
+        <v>639400</v>
       </c>
       <c r="E17" s="3">
-        <v>752700</v>
+        <v>729600</v>
       </c>
       <c r="F17" s="3">
-        <v>410700</v>
+        <v>398100</v>
       </c>
       <c r="G17" s="3">
-        <v>214700</v>
+        <v>208100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="E18" s="3">
-        <v>-147300</v>
+        <v>-142800</v>
       </c>
       <c r="F18" s="3">
-        <v>-134300</v>
+        <v>-130200</v>
       </c>
       <c r="G18" s="3">
-        <v>-72800</v>
+        <v>-70500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>36600</v>
+        <v>35400</v>
       </c>
       <c r="E21" s="3">
-        <v>-132300</v>
+        <v>-128300</v>
       </c>
       <c r="F21" s="3">
-        <v>-128000</v>
+        <v>-124100</v>
       </c>
       <c r="G21" s="3">
-        <v>-68700</v>
+        <v>-66600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="E23" s="3">
-        <v>-143800</v>
+        <v>-139400</v>
       </c>
       <c r="F23" s="3">
-        <v>-133900</v>
+        <v>-129800</v>
       </c>
       <c r="G23" s="3">
-        <v>-71400</v>
+        <v>-69200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E26" s="3">
-        <v>-152300</v>
+        <v>-147600</v>
       </c>
       <c r="F26" s="3">
-        <v>-133900</v>
+        <v>-129800</v>
       </c>
       <c r="G26" s="3">
-        <v>-71400</v>
+        <v>-69200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E27" s="3">
-        <v>-175600</v>
+        <v>-170200</v>
       </c>
       <c r="F27" s="3">
-        <v>-174300</v>
+        <v>-168900</v>
       </c>
       <c r="G27" s="3">
-        <v>-104400</v>
+        <v>-101200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35000</v>
+        <v>-34000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E33" s="3">
-        <v>-175600</v>
+        <v>-170200</v>
       </c>
       <c r="F33" s="3">
-        <v>-174300</v>
+        <v>-168900</v>
       </c>
       <c r="G33" s="3">
-        <v>-104400</v>
+        <v>-101200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E35" s="3">
-        <v>-175600</v>
+        <v>-170200</v>
       </c>
       <c r="F35" s="3">
-        <v>-174300</v>
+        <v>-168900</v>
       </c>
       <c r="G35" s="3">
-        <v>-104400</v>
+        <v>-101200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1386200</v>
+        <v>1343600</v>
       </c>
       <c r="E41" s="3">
-        <v>1612200</v>
+        <v>1562700</v>
       </c>
       <c r="F41" s="3">
-        <v>568300</v>
+        <v>550900</v>
       </c>
       <c r="G41" s="3">
-        <v>57900</v>
+        <v>56100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>491600</v>
+        <v>476500</v>
       </c>
       <c r="E42" s="3">
-        <v>125800</v>
+        <v>121900</v>
       </c>
       <c r="F42" s="3">
-        <v>76200</v>
+        <v>73900</v>
       </c>
       <c r="G42" s="3">
-        <v>162300</v>
+        <v>157300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35800</v>
+        <v>34700</v>
       </c>
       <c r="E43" s="3">
-        <v>58900</v>
+        <v>57000</v>
       </c>
       <c r="F43" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="G43" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51800</v>
+        <v>50200</v>
       </c>
       <c r="E45" s="3">
-        <v>45200</v>
+        <v>43800</v>
       </c>
       <c r="F45" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G45" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1965400</v>
+        <v>1905000</v>
       </c>
       <c r="E46" s="3">
-        <v>1842100</v>
+        <v>1785500</v>
       </c>
       <c r="F46" s="3">
-        <v>674800</v>
+        <v>654100</v>
       </c>
       <c r="G46" s="3">
-        <v>242800</v>
+        <v>235300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139400</v>
+        <v>135100</v>
       </c>
       <c r="E48" s="3">
-        <v>96400</v>
+        <v>93400</v>
       </c>
       <c r="F48" s="3">
-        <v>47700</v>
+        <v>46200</v>
       </c>
       <c r="G48" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2107600</v>
+        <v>2042800</v>
       </c>
       <c r="E54" s="3">
-        <v>1939200</v>
+        <v>1879500</v>
       </c>
       <c r="F54" s="3">
-        <v>722600</v>
+        <v>700400</v>
       </c>
       <c r="G54" s="3">
-        <v>267100</v>
+        <v>258900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="E57" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G57" s="3">
         <v>5600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>406100</v>
+        <v>393600</v>
       </c>
       <c r="E59" s="3">
-        <v>388600</v>
+        <v>376600</v>
       </c>
       <c r="F59" s="3">
-        <v>238900</v>
+        <v>231600</v>
       </c>
       <c r="G59" s="3">
-        <v>137500</v>
+        <v>133300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>430900</v>
+        <v>417600</v>
       </c>
       <c r="E60" s="3">
-        <v>395800</v>
+        <v>383600</v>
       </c>
       <c r="F60" s="3">
-        <v>244500</v>
+        <v>237000</v>
       </c>
       <c r="G60" s="3">
-        <v>143300</v>
+        <v>138900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="E62" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F62" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G62" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>452900</v>
+        <v>439000</v>
       </c>
       <c r="E66" s="3">
-        <v>421800</v>
+        <v>408900</v>
       </c>
       <c r="F66" s="3">
-        <v>255400</v>
+        <v>247500</v>
       </c>
       <c r="G66" s="3">
-        <v>148600</v>
+        <v>144100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>808900</v>
+        <v>784100</v>
       </c>
       <c r="G70" s="3">
-        <v>370100</v>
+        <v>358700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-509800</v>
+        <v>-494100</v>
       </c>
       <c r="E72" s="3">
-        <v>-525000</v>
+        <v>-508800</v>
       </c>
       <c r="F72" s="3">
-        <v>-372700</v>
+        <v>-361300</v>
       </c>
       <c r="G72" s="3">
-        <v>-238800</v>
+        <v>-231500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1654700</v>
+        <v>1603900</v>
       </c>
       <c r="E76" s="3">
-        <v>1517300</v>
+        <v>1470700</v>
       </c>
       <c r="F76" s="3">
-        <v>-341700</v>
+        <v>-331200</v>
       </c>
       <c r="G76" s="3">
-        <v>-251600</v>
+        <v>-243900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E81" s="3">
-        <v>-175600</v>
+        <v>-170200</v>
       </c>
       <c r="F81" s="3">
-        <v>-174300</v>
+        <v>-168900</v>
       </c>
       <c r="G81" s="3">
-        <v>-104400</v>
+        <v>-101200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>142600</v>
+        <v>138200</v>
       </c>
       <c r="E89" s="3">
-        <v>233300</v>
+        <v>226100</v>
       </c>
       <c r="F89" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="G89" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48300</v>
+        <v>-46900</v>
       </c>
       <c r="E91" s="3">
-        <v>-36900</v>
+        <v>-35800</v>
       </c>
       <c r="F91" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400400</v>
+        <v>-388100</v>
       </c>
       <c r="E94" s="3">
-        <v>-85600</v>
+        <v>-82900</v>
       </c>
       <c r="F94" s="3">
-        <v>66400</v>
+        <v>64400</v>
       </c>
       <c r="G94" s="3">
-        <v>-174000</v>
+        <v>-168600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-95100</v>
+        <v>-92200</v>
       </c>
       <c r="E100" s="3">
-        <v>914200</v>
+        <v>886100</v>
       </c>
       <c r="F100" s="3">
-        <v>409700</v>
+        <v>397100</v>
       </c>
       <c r="G100" s="3">
-        <v>141200</v>
+        <v>136900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>126900</v>
+        <v>123000</v>
       </c>
       <c r="E101" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="F101" s="3">
-        <v>-22000</v>
+        <v>-21300</v>
       </c>
       <c r="G101" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-226000</v>
+        <v>-219100</v>
       </c>
       <c r="E102" s="3">
-        <v>1043900</v>
+        <v>1011800</v>
       </c>
       <c r="F102" s="3">
-        <v>510400</v>
+        <v>494700</v>
       </c>
       <c r="G102" s="3">
-        <v>-41600</v>
+        <v>-40400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZ_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>621500</v>
+        <v>622900</v>
       </c>
       <c r="E8" s="3">
-        <v>586800</v>
+        <v>588100</v>
       </c>
       <c r="F8" s="3">
-        <v>267900</v>
+        <v>268500</v>
       </c>
       <c r="G8" s="3">
-        <v>137600</v>
+        <v>137900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>104000</v>
+        <v>104200</v>
       </c>
       <c r="E9" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="F9" s="3">
-        <v>33100</v>
+        <v>33200</v>
       </c>
       <c r="G9" s="3">
         <v>19000</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>517500</v>
+        <v>518700</v>
       </c>
       <c r="E10" s="3">
-        <v>510400</v>
+        <v>511500</v>
       </c>
       <c r="F10" s="3">
-        <v>234800</v>
+        <v>235300</v>
       </c>
       <c r="G10" s="3">
-        <v>118600</v>
+        <v>118900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>163000</v>
+        <v>163300</v>
       </c>
       <c r="E12" s="3">
-        <v>113300</v>
+        <v>113500</v>
       </c>
       <c r="F12" s="3">
-        <v>70700</v>
+        <v>70900</v>
       </c>
       <c r="G12" s="3">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>639400</v>
+        <v>640800</v>
       </c>
       <c r="E17" s="3">
-        <v>729600</v>
+        <v>731200</v>
       </c>
       <c r="F17" s="3">
-        <v>398100</v>
+        <v>398900</v>
       </c>
       <c r="G17" s="3">
-        <v>208100</v>
+        <v>208600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="E18" s="3">
-        <v>-142800</v>
+        <v>-143100</v>
       </c>
       <c r="F18" s="3">
-        <v>-130200</v>
+        <v>-130500</v>
       </c>
       <c r="G18" s="3">
-        <v>-70500</v>
+        <v>-70700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35400</v>
+        <v>35500</v>
       </c>
       <c r="E21" s="3">
-        <v>-128300</v>
+        <v>-128600</v>
       </c>
       <c r="F21" s="3">
-        <v>-124100</v>
+        <v>-124400</v>
       </c>
       <c r="G21" s="3">
-        <v>-66600</v>
+        <v>-66800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E23" s="3">
-        <v>-139400</v>
+        <v>-139700</v>
       </c>
       <c r="F23" s="3">
-        <v>-129800</v>
+        <v>-130100</v>
       </c>
       <c r="G23" s="3">
-        <v>-69200</v>
+        <v>-69300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1258,13 +1258,13 @@
         <v>14800</v>
       </c>
       <c r="E26" s="3">
-        <v>-147600</v>
+        <v>-147900</v>
       </c>
       <c r="F26" s="3">
-        <v>-129800</v>
+        <v>-130100</v>
       </c>
       <c r="G26" s="3">
-        <v>-69200</v>
+        <v>-69300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1291,13 +1291,13 @@
         <v>14800</v>
       </c>
       <c r="E27" s="3">
-        <v>-170200</v>
+        <v>-170500</v>
       </c>
       <c r="F27" s="3">
-        <v>-168900</v>
+        <v>-169300</v>
       </c>
       <c r="G27" s="3">
-        <v>-101200</v>
+        <v>-101400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1489,13 +1489,13 @@
         <v>14800</v>
       </c>
       <c r="E33" s="3">
-        <v>-170200</v>
+        <v>-170500</v>
       </c>
       <c r="F33" s="3">
-        <v>-168900</v>
+        <v>-169300</v>
       </c>
       <c r="G33" s="3">
-        <v>-101200</v>
+        <v>-101400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1555,13 +1555,13 @@
         <v>14800</v>
       </c>
       <c r="E35" s="3">
-        <v>-170200</v>
+        <v>-170500</v>
       </c>
       <c r="F35" s="3">
-        <v>-168900</v>
+        <v>-169300</v>
       </c>
       <c r="G35" s="3">
-        <v>-101200</v>
+        <v>-101400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1343600</v>
+        <v>1346500</v>
       </c>
       <c r="E41" s="3">
-        <v>1562700</v>
+        <v>1566100</v>
       </c>
       <c r="F41" s="3">
-        <v>550900</v>
+        <v>552100</v>
       </c>
       <c r="G41" s="3">
-        <v>56100</v>
+        <v>56200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>476500</v>
+        <v>477500</v>
       </c>
       <c r="E42" s="3">
-        <v>121900</v>
+        <v>122200</v>
       </c>
       <c r="F42" s="3">
-        <v>73900</v>
+        <v>74100</v>
       </c>
       <c r="G42" s="3">
-        <v>157300</v>
+        <v>157700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,10 +1719,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="E43" s="3">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="F43" s="3">
         <v>16800</v>
@@ -1785,10 +1785,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="E45" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="F45" s="3">
         <v>12500</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1905000</v>
+        <v>1909100</v>
       </c>
       <c r="E46" s="3">
-        <v>1785500</v>
+        <v>1789400</v>
       </c>
       <c r="F46" s="3">
-        <v>654100</v>
+        <v>655500</v>
       </c>
       <c r="G46" s="3">
-        <v>235300</v>
+        <v>235800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>135100</v>
+        <v>135400</v>
       </c>
       <c r="E48" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="F48" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="G48" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2042800</v>
+        <v>2047300</v>
       </c>
       <c r="E54" s="3">
-        <v>1879500</v>
+        <v>1883600</v>
       </c>
       <c r="F54" s="3">
-        <v>700400</v>
+        <v>701900</v>
       </c>
       <c r="G54" s="3">
-        <v>258900</v>
+        <v>259500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="E57" s="3">
         <v>7000</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393600</v>
+        <v>394500</v>
       </c>
       <c r="E59" s="3">
-        <v>376600</v>
+        <v>377500</v>
       </c>
       <c r="F59" s="3">
-        <v>231600</v>
+        <v>232100</v>
       </c>
       <c r="G59" s="3">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>417600</v>
+        <v>418500</v>
       </c>
       <c r="E60" s="3">
-        <v>383600</v>
+        <v>384400</v>
       </c>
       <c r="F60" s="3">
-        <v>237000</v>
+        <v>237500</v>
       </c>
       <c r="G60" s="3">
-        <v>138900</v>
+        <v>139200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439000</v>
+        <v>439900</v>
       </c>
       <c r="E66" s="3">
-        <v>408900</v>
+        <v>409800</v>
       </c>
       <c r="F66" s="3">
-        <v>247500</v>
+        <v>248000</v>
       </c>
       <c r="G66" s="3">
-        <v>144100</v>
+        <v>144400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>784100</v>
+        <v>785800</v>
       </c>
       <c r="G70" s="3">
-        <v>358700</v>
+        <v>359500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-494100</v>
+        <v>-495200</v>
       </c>
       <c r="E72" s="3">
-        <v>-508800</v>
+        <v>-509900</v>
       </c>
       <c r="F72" s="3">
-        <v>-361300</v>
+        <v>-362100</v>
       </c>
       <c r="G72" s="3">
-        <v>-231500</v>
+        <v>-232000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1603900</v>
+        <v>1607400</v>
       </c>
       <c r="E76" s="3">
-        <v>1470700</v>
+        <v>1473900</v>
       </c>
       <c r="F76" s="3">
-        <v>-331200</v>
+        <v>-331900</v>
       </c>
       <c r="G76" s="3">
-        <v>-243900</v>
+        <v>-244400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2861,13 +2861,13 @@
         <v>14800</v>
       </c>
       <c r="E81" s="3">
-        <v>-170200</v>
+        <v>-170500</v>
       </c>
       <c r="F81" s="3">
-        <v>-168900</v>
+        <v>-169300</v>
       </c>
       <c r="G81" s="3">
-        <v>-101200</v>
+        <v>-101400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F83" s="3">
         <v>5700</v>
@@ -3104,13 +3104,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>138200</v>
+        <v>138500</v>
       </c>
       <c r="E89" s="3">
-        <v>226100</v>
+        <v>226600</v>
       </c>
       <c r="F89" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="G89" s="3">
         <v>-14600</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46900</v>
+        <v>-47000</v>
       </c>
       <c r="E91" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="F91" s="3">
-        <v>-19000</v>
+        <v>-19100</v>
       </c>
       <c r="G91" s="3">
         <v>-8800</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-388100</v>
+        <v>-388900</v>
       </c>
       <c r="E94" s="3">
-        <v>-82900</v>
+        <v>-83100</v>
       </c>
       <c r="F94" s="3">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="G94" s="3">
-        <v>-168600</v>
+        <v>-169000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92200</v>
+        <v>-92400</v>
       </c>
       <c r="E100" s="3">
-        <v>886100</v>
+        <v>888000</v>
       </c>
       <c r="F100" s="3">
-        <v>397100</v>
+        <v>398000</v>
       </c>
       <c r="G100" s="3">
-        <v>136900</v>
+        <v>137200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>123000</v>
+        <v>123300</v>
       </c>
       <c r="E101" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="F101" s="3">
         <v>-21300</v>
       </c>
       <c r="G101" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-219100</v>
+        <v>-219500</v>
       </c>
       <c r="E102" s="3">
-        <v>1011800</v>
+        <v>1014000</v>
       </c>
       <c r="F102" s="3">
-        <v>494700</v>
+        <v>495800</v>
       </c>
       <c r="G102" s="3">
         <v>-40400</v>
